--- a/programs/raw/에버랜드데이터셋11.xlsx
+++ b/programs/raw/에버랜드데이터셋11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3443\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehyu\Desktop\대학\23-2 수업\컴알실\EverRoute\programs\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4F9319-C414-4DBD-9A12-F1F5FF9B3FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D804365-89D7-4D37-A1BF-BFB86F67DC27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{DE70A8A9-2802-1A4D-B0AB-DE520C9C843F}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" xr2:uid="{DE70A8A9-2802-1A4D-B0AB-DE520C9C843F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,30 +22,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -60,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="50">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +152,6 @@
   </si>
   <si>
     <t>플라잉레스큐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슈팅코스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -788,15 +773,15 @@
   <dimension ref="A1:AB86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -810,7 +795,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -879,10 +864,10 @@
         <v>25</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45252</v>
       </c>
@@ -968,7 +953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45252</v>
       </c>
@@ -1054,7 +1039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45252</v>
       </c>
@@ -1140,7 +1125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45252</v>
       </c>
@@ -1226,7 +1211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45252</v>
       </c>
@@ -1312,7 +1297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45252</v>
       </c>
@@ -1398,7 +1383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45252</v>
       </c>
@@ -1484,7 +1469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45252</v>
       </c>
@@ -1570,7 +1555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45252</v>
       </c>
@@ -1656,7 +1641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45253</v>
       </c>
@@ -1742,7 +1727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45253</v>
       </c>
@@ -1828,7 +1813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45253</v>
       </c>
@@ -1914,7 +1899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45253</v>
       </c>
@@ -2000,7 +1985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45253</v>
       </c>
@@ -2086,7 +2071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45253</v>
       </c>
@@ -2172,7 +2157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45253</v>
       </c>
@@ -2258,7 +2243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45253</v>
       </c>
@@ -2344,7 +2329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45253</v>
       </c>
@@ -2430,7 +2415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45254</v>
       </c>
@@ -2516,7 +2501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45254</v>
       </c>
@@ -2602,7 +2587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45254</v>
       </c>
@@ -2688,7 +2673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45254</v>
       </c>
@@ -2774,7 +2759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45254</v>
       </c>
@@ -2860,7 +2845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45254</v>
       </c>
@@ -2946,7 +2931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45254</v>
       </c>
@@ -3032,7 +3017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45254</v>
       </c>
@@ -3118,7 +3103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45254</v>
       </c>
@@ -3204,7 +3189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45255</v>
       </c>
@@ -3290,7 +3275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45255</v>
       </c>
@@ -3376,7 +3361,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45255</v>
       </c>
@@ -3462,7 +3447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45255</v>
       </c>
@@ -3548,7 +3533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45255</v>
       </c>
@@ -3634,7 +3619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45255</v>
       </c>
@@ -3720,7 +3705,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45255</v>
       </c>
@@ -3806,7 +3791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45255</v>
       </c>
@@ -3892,7 +3877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45255</v>
       </c>
@@ -3978,7 +3963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45256</v>
       </c>
@@ -4064,7 +4049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45256</v>
       </c>
@@ -4150,7 +4135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45256</v>
       </c>
@@ -4236,7 +4221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45256</v>
       </c>
@@ -4322,7 +4307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45256</v>
       </c>
@@ -4408,7 +4393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45256</v>
       </c>
@@ -4494,7 +4479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45256</v>
       </c>
@@ -4580,7 +4565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45256</v>
       </c>
@@ -4666,7 +4651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>45256</v>
       </c>
@@ -4752,7 +4737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45257</v>
       </c>
@@ -4838,7 +4823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>45257</v>
       </c>
@@ -4924,7 +4909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>45257</v>
       </c>
@@ -5010,7 +4995,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>45257</v>
       </c>
@@ -5096,7 +5081,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>45257</v>
       </c>
@@ -5182,7 +5167,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>45257</v>
       </c>
@@ -5268,7 +5253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>45257</v>
       </c>
@@ -5354,7 +5339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>45257</v>
       </c>
@@ -5440,7 +5425,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>45257</v>
       </c>
@@ -5526,7 +5511,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>45258</v>
       </c>
@@ -5612,7 +5597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>45258</v>
       </c>
@@ -5698,7 +5683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>45258</v>
       </c>
@@ -5784,7 +5769,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>45258</v>
       </c>
@@ -5870,7 +5855,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>45258</v>
       </c>
@@ -5956,7 +5941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>45258</v>
       </c>
@@ -6042,7 +6027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>45258</v>
       </c>
@@ -6128,7 +6113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>45258</v>
       </c>
@@ -6214,7 +6199,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>45258</v>
       </c>
@@ -6314,16 +6299,16 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.84375" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.84375" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.69140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.84375" style="6"/>
+    <col min="29" max="29" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>IF($C$29,"dist(meter)","time(minute)")</f>
         <v>time(minute)</v>
@@ -6335,7 +6320,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -6404,16 +6389,16 @@
         <v>25</v>
       </c>
       <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6528,7 +6513,7 @@
         <v>127.199760553937</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6643,9 +6628,9 @@
         <v>127.200328353939</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="7">
         <f t="shared" ca="1" si="0"/>
@@ -6758,7 +6743,7 @@
         <v>127.202633153937</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6873,7 +6858,7 @@
         <v>127.20069485393699</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6988,7 +6973,7 @@
         <v>127.19431075393599</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -7103,7 +7088,7 @@
         <v>127.19514935393801</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7219,7 +7204,7 @@
       </c>
       <c r="AF8"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -7335,7 +7320,7 @@
       </c>
       <c r="AF9"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -7451,7 +7436,7 @@
       </c>
       <c r="AF10"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -7567,7 +7552,7 @@
       </c>
       <c r="AF11"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7683,7 +7668,7 @@
       </c>
       <c r="AF12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -7799,7 +7784,7 @@
       </c>
       <c r="AF13"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -7915,7 +7900,7 @@
       </c>
       <c r="AF14"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -8031,7 +8016,7 @@
       </c>
       <c r="AF15"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -8147,7 +8132,7 @@
       </c>
       <c r="AF16"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -8263,7 +8248,7 @@
       </c>
       <c r="AF17"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -8379,7 +8364,7 @@
       </c>
       <c r="AF18"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -8495,7 +8480,7 @@
       </c>
       <c r="AF19"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -8611,7 +8596,7 @@
       </c>
       <c r="AF20"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -8727,7 +8712,7 @@
       </c>
       <c r="AF21"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -8843,7 +8828,7 @@
       </c>
       <c r="AF22"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -8959,7 +8944,7 @@
       </c>
       <c r="AF23"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -9075,7 +9060,7 @@
       </c>
       <c r="AF24"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -9191,7 +9176,7 @@
       </c>
       <c r="AF25"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -9307,9 +9292,9 @@
       </c>
       <c r="AF26"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="7">
         <f ca="1">6371000/IF($C$29,1,$E$29) * ACOS(COS(RADIANS(90-INDIRECT(ADDRESS(COLUMN(),29,4)))) * COS(RADIANS(90-INDIRECT(ADDRESS(ROW(),29,4)))) + SIN(RADIANS(90-INDIRECT(ADDRESS(COLUMN(),29,4)))) * SIN(RADIANS(90-INDIRECT(ADDRESS(ROW(),29,4)))) * COS(RADIANS(INDIRECT(ADDRESS(COLUMN(),30,4))-INDIRECT(ADDRESS(ROW(),30,4)))))</f>
@@ -9423,91 +9408,91 @@
       </c>
       <c r="AF27"/>
     </row>
-    <row r="28" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="29" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="19" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="21">
         <v>42.279470000000003</v>
       </c>
       <c r="AD29"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C30" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD30"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD31"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
         <v>31</v>
       </c>
-      <c r="AD31"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="C32" t="s">
+      <c r="AD32"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
         <v>32</v>
       </c>
-      <c r="AD32"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C33" t="s">
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C34" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C35" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
       <c r="C37" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="10"/>
       <c r="C38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="10"/>
       <c r="C39" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="10" t="s">
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C40" s="10" t="s">
+      <c r="E40" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -9525,18 +9510,18 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.84375" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="12" width="5.84375" customWidth="1"/>
-    <col min="13" max="13" width="5.84375" style="12" customWidth="1"/>
-    <col min="14" max="20" width="5.84375" customWidth="1"/>
-    <col min="29" max="30" width="5.84375" style="4" customWidth="1"/>
-    <col min="32" max="32" width="5.84375" style="6"/>
+    <col min="7" max="12" width="5.88671875" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" style="12" customWidth="1"/>
+    <col min="14" max="20" width="5.88671875" customWidth="1"/>
+    <col min="29" max="30" width="5.88671875" style="4" customWidth="1"/>
+    <col min="32" max="32" width="5.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -9545,7 +9530,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -9614,11 +9599,11 @@
         <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="5"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -9704,7 +9689,7 @@
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -9790,9 +9775,9 @@
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="7" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">INDIRECT(ADDRESS(COLUMN(),ROW(),4))</f>
@@ -9877,7 +9862,7 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9965,7 +9950,7 @@
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10054,7 +10039,7 @@
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -10144,7 +10129,7 @@
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10236,7 +10221,7 @@
       <c r="AD8" s="8"/>
       <c r="AF8"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -10329,7 +10314,7 @@
       <c r="AD9" s="8"/>
       <c r="AF9"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -10423,7 +10408,7 @@
       <c r="AD10" s="8"/>
       <c r="AF10"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -10518,7 +10503,7 @@
       <c r="AD11" s="8"/>
       <c r="AF11"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -10614,7 +10599,7 @@
       <c r="AD12" s="8"/>
       <c r="AF12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -10711,7 +10696,7 @@
       <c r="AD13" s="8"/>
       <c r="AF13"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -10809,7 +10794,7 @@
       <c r="AD14" s="8"/>
       <c r="AF14"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -10908,7 +10893,7 @@
       <c r="AD15" s="8"/>
       <c r="AF15"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -11008,7 +10993,7 @@
       <c r="AD16" s="8"/>
       <c r="AF16"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -11109,7 +11094,7 @@
       <c r="AD17" s="8"/>
       <c r="AF17"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -11211,7 +11196,7 @@
       <c r="AD18" s="8"/>
       <c r="AF18"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -11314,7 +11299,7 @@
       <c r="AD19" s="8"/>
       <c r="AF19"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -11418,7 +11403,7 @@
       <c r="AD20" s="8"/>
       <c r="AF20"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -11523,7 +11508,7 @@
       <c r="AD21" s="8"/>
       <c r="AF21"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -11629,7 +11614,7 @@
       <c r="AD22" s="8"/>
       <c r="AF22"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -11736,7 +11721,7 @@
       <c r="AD23" s="8"/>
       <c r="AF23"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -11844,7 +11829,7 @@
       <c r="AD24" s="8"/>
       <c r="AF24"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -11953,7 +11938,7 @@
       <c r="AD25" s="8"/>
       <c r="AF25"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -12063,9 +12048,9 @@
       <c r="AD26" s="8"/>
       <c r="AF26"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="7" cm="1">
         <f t="array" aca="1" ref="B27" ca="1">INDIRECT(ADDRESS(COLUMN(),ROW(),4))</f>
@@ -12174,73 +12159,73 @@
       <c r="AD27" s="8"/>
       <c r="AF27"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AD29"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C30" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD30"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AD31"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD32"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C35" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
       <c r="C37" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="10"/>
       <c r="C38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="10"/>
       <c r="C39" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="10" t="s">
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C40" s="10" t="s">
+      <c r="E40" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
